--- a/src/main/resources/excel/penxml_template.xlsx
+++ b/src/main/resources/excel/penxml_template.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03B16EE6-5B24-46B9-A65F-D3434320C475}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB73A1B1-4755-4CD1-8C04-05E476E062DD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8085" yWindow="3285" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2025" yWindow="3825" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Template" sheetId="1" r:id="rId1"/>
@@ -53,7 +53,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -63,6 +63,13 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -88,8 +95,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -372,9 +380,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -383,8 +389,8 @@
     <col min="3" max="3" width="20.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
@@ -413,5 +419,6 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>